--- a/pascal/list_labels.xlsx
+++ b/pascal/list_labels.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kazak\Desktop\CH_GU\pascal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ojo\Desktop\CODE\CHGU\pascal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13416" windowHeight="5472"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="5475"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,17 +423,17 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -449,7 +449,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -463,7 +463,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -474,7 +474,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -485,7 +485,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -493,12 +493,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -506,12 +506,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -519,17 +519,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>

--- a/pascal/list_labels.xlsx
+++ b/pascal/list_labels.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Чебураш</t>
   </si>
@@ -74,19 +74,7 @@
     <t>Время</t>
   </si>
   <si>
-    <t>И-212</t>
-  </si>
-  <si>
-    <t>13:30 - 14:50</t>
-  </si>
-  <si>
-    <t>08:20 - 09:40</t>
-  </si>
-  <si>
-    <t>15:00 - 16:20</t>
-  </si>
-  <si>
-    <t>09:50 - 11:10</t>
+    <t>~</t>
   </si>
 </sst>
 </file>
@@ -435,7 +423,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,15 +459,9 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3">
-        <v>44945</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -490,23 +472,18 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3">
-        <v>44946</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -514,9 +491,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">

--- a/pascal/list_labels.xlsx
+++ b/pascal/list_labels.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Чебураш</t>
   </si>
@@ -423,7 +423,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,6 +523,9 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
